--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\mmorpg\gameserver\src\main\resources\gameData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC26F656-2301-44D8-9511-D70DBD5ADB8B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16536" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,33 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>剑刃风暴</t>
-  </si>
-  <si>
-    <t>冲锋</t>
-  </si>
-  <si>
-    <t>暴风雪</t>
-  </si>
-  <si>
-    <t>奥术飞弹</t>
-  </si>
-  <si>
     <t>名字</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -56,7 +35,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>消耗</t>
@@ -66,34 +44,53 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>mp</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>激活时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑刃风暴</t>
+  </si>
+  <si>
+    <t>冲锋</t>
+  </si>
+  <si>
+    <t>暴风雪</t>
+  </si>
+  <si>
+    <t>奥术飞弹</t>
+  </si>
+  <si>
+    <t>死亡缠绕</t>
+  </si>
+  <si>
+    <t>亡者大军</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,38 +102,360 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -159,9 +478,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -172,24 +733,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -476,55 +1081,55 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -548,12 +1153,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -577,12 +1182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -606,12 +1211,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -635,37 +1240,101 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>60</v>
+      </c>
+      <c r="E7" s="1">
+        <v>60</v>
+      </c>
+      <c r="F7" s="1">
+        <v>666</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>id</t>
   </si>
@@ -62,6 +62,9 @@
     <t>激活时间</t>
   </si>
   <si>
+    <t>buffer</t>
+  </si>
+  <si>
     <t>剑刃风暴</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
   </si>
   <si>
     <t>亡者大军</t>
+  </si>
+  <si>
+    <t>火球术</t>
   </si>
 </sst>
 </file>
@@ -85,12 +91,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,10 +117,133 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -131,135 +260,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -270,43 +270,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,25 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,37 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,67 +432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,39 +475,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +509,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,8 +556,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,137 +596,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,9 +734,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1087,15 +1084,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,7 +1105,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1123,13 +1120,16 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1152,13 +1152,14 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
+      <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1181,13 +1182,14 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1210,13 +1212,14 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
+      <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1239,13 +1242,14 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1268,13 +1272,14 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
+      <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -1296,6 +1301,39 @@
       </c>
       <c r="I7" s="1">
         <v>0</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -91,10 +91,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -118,12 +118,55 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -132,15 +175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,22 +185,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -173,20 +194,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,46 +215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +238,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -270,49 +270,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,31 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,97 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,6 +479,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -494,17 +503,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,6 +517,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,35 +547,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -576,6 +561,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -584,145 +584,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1152,7 +1152,9 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1">
@@ -1182,7 +1184,9 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
@@ -1212,7 +1216,9 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1">
@@ -1242,7 +1248,9 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="1">
@@ -1272,7 +1280,9 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1">
@@ -1302,7 +1312,9 @@
       <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1">
@@ -1312,7 +1324,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -13,6 +13,31 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>gonefuture</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>1 对自身使用
+2 对敌人单体使用
+3 对敌方群体使用
+4 对友方使用</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56,12 +81,6 @@
     <t>等级</t>
   </si>
   <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>激活时间</t>
-  </si>
-  <si>
     <t>buffer</t>
   </si>
   <si>
@@ -84,6 +103,12 @@
   </si>
   <si>
     <t>火球术</t>
+  </si>
+  <si>
+    <t>多重射击</t>
+  </si>
+  <si>
+    <t>眩晕</t>
   </si>
 </sst>
 </file>
@@ -124,6 +149,104 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -139,123 +262,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,37 +295,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,145 +409,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,8 +507,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,59 +578,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,15 +1109,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1114,28 +1139,22 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E2" s="1">
         <v>50</v>
@@ -1149,25 +1168,19 @@
       <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="I2" s="1">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>40</v>
+        <v>40000</v>
       </c>
       <c r="E3" s="1">
         <v>30</v>
@@ -1181,25 +1194,19 @@
       <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>30000</v>
       </c>
       <c r="E4" s="1">
         <v>80</v>
@@ -1211,27 +1218,21 @@
         <v>10</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>10000</v>
       </c>
       <c r="E5" s="1">
         <v>30</v>
@@ -1245,25 +1246,19 @@
       <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>1005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>20</v>
+        <v>20000</v>
       </c>
       <c r="E6" s="1">
         <v>20</v>
@@ -1277,25 +1272,19 @@
       <c r="H6" s="1">
         <v>0</v>
       </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>1006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>60</v>
+        <v>60000</v>
       </c>
       <c r="E7" s="1">
         <v>60</v>
@@ -1309,25 +1298,19 @@
       <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>
@@ -1339,19 +1322,66 @@
         <v>10</v>
       </c>
       <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>35000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1">
+        <v>30</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1">
         <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>10</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -116,10 +116,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -150,6 +150,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -164,29 +178,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,6 +208,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -224,47 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,6 +528,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -552,26 +567,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,21 +601,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -609,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,133 +621,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1112,7 +1112,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>5000</v>
+        <v>20000</v>
       </c>
       <c r="E8" s="1">
         <v>10</v>

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -29,10 +27,12 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>1 对自身使用
+          <t xml:space="preserve">1 对自身使用
 2 对敌人单体使用
 3 对敌方群体使用
-4 对友方使用</t>
+4 对友方使用
+5 召唤兽技能，对敌方使用
+</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>id</t>
   </si>
@@ -84,12 +84,18 @@
     <t>buffer</t>
   </si>
   <si>
+    <t>描述</t>
+  </si>
+  <si>
     <t>剑刃风暴</t>
   </si>
   <si>
     <t>冲锋</t>
   </si>
   <si>
+    <t>冲锋后会造成眩晕效果</t>
+  </si>
+  <si>
     <t>暴风雪</t>
   </si>
   <si>
@@ -105,10 +111,34 @@
     <t>火球术</t>
   </si>
   <si>
+    <t>单体技能，会造成灼烧效果</t>
+  </si>
+  <si>
     <t>多重射击</t>
   </si>
   <si>
+    <t>对多个目标造成伤害</t>
+  </si>
+  <si>
     <t>眩晕</t>
+  </si>
+  <si>
+    <t>造成眩晕效果</t>
+  </si>
+  <si>
+    <t>动物伙伴</t>
+  </si>
+  <si>
+    <t>召唤一个宠物协同自己作战</t>
+  </si>
+  <si>
+    <t>治疗术</t>
+  </si>
+  <si>
+    <t>治疗队友或自己</t>
+  </si>
+  <si>
+    <t>圣击术</t>
   </si>
 </sst>
 </file>
@@ -116,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -128,6 +158,156 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -135,156 +315,6 @@
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -295,97 +325,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,110 +505,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,17 +528,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,11 +591,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,10 +624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -621,145 +636,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,272 +1118,374 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="9" max="9" width="34.6666666666667" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>1001</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>30000</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="D2" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E2" s="1">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1">
-        <v>120</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>40000</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3">
         <v>30</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
-        <v>0</v>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>30000</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="F4">
+        <v>60</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>80</v>
-      </c>
-      <c r="F4" s="1">
-        <v>60</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5">
         <v>10000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
         <v>50</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>1005</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6">
         <v>20000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6">
         <v>20</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
         <v>80</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
         <v>2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>1006</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7">
         <v>60000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7">
         <v>60</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
         <v>666</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>20000</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>35000</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>30</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
         <v>2</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10">
         <v>20000</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>10</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>20000</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>20000</v>
+      </c>
+      <c r="E12">
+        <v>30</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>20000</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
         <v>20</v>
       </c>
-      <c r="G8" s="1">
-        <v>10</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="G13">
         <v>15</v>
       </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>35000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
-        <v>30</v>
-      </c>
-      <c r="G9" s="1">
-        <v>10</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="H13">
         <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>20000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1</v>
-      </c>
-      <c r="G10" s="1">
-        <v>10</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1383,38 +1494,4 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -36,6 +36,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">技能启动的buffer,如果技能类型是5（召唤兽类型技能），则效果是召唤一个场景对象。
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -148,8 +161,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -168,6 +181,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -175,10 +227,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,19 +266,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -229,68 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,115 +338,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,13 +506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,49 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,11 +532,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,10 +580,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -575,47 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -624,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -636,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -839,7 +852,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1121,7 +1134,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1427,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -159,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -189,7 +189,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,14 +227,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,83 +281,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,25 +338,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,13 +464,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -386,61 +488,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,73 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,6 +529,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,6 +566,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -580,21 +621,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -603,32 +629,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -637,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +649,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1440,7 +1440,7 @@
         <v>15</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
         <v>23</v>

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>id</t>
   </si>
@@ -97,6 +97,9 @@
     <t>buffer</t>
   </si>
   <si>
+    <t>召唤</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -159,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -174,6 +177,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -181,6 +199,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -189,6 +215,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -197,14 +260,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +291,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,98 +317,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -338,55 +341,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,127 +497,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -529,21 +532,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -564,44 +552,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,8 +579,56 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -637,10 +640,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1131,18 +1134,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="9" max="9" width="34.6666666666667" customWidth="1"/>
+    <col min="10" max="10" width="34.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1169,6 +1172,9 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1176,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1197,12 +1203,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1222,8 +1228,8 @@
       <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" t="s">
-        <v>11</v>
+      <c r="J3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1231,7 +1237,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1249,7 +1255,7 @@
         <v>10</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1257,7 +1263,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1283,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1301,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1309,10 +1315,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>60000</v>
@@ -1330,12 +1336,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1355,16 +1361,16 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>17</v>
+      <c r="J8" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1384,16 +1390,16 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" t="s">
-        <v>19</v>
+      <c r="J9" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1413,16 +1419,16 @@
       <c r="H10">
         <v>3</v>
       </c>
-      <c r="I10" t="s">
-        <v>21</v>
+      <c r="J10" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1440,18 +1446,21 @@
         <v>15</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>16</v>
       </c>
-      <c r="I11" t="s">
-        <v>23</v>
+      <c r="J11" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1471,8 +1480,8 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12" t="s">
-        <v>25</v>
+      <c r="J12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1480,7 +1489,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>2</v>

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="23040" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>id</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>施法时间</t>
   </si>
   <si>
     <t>cd</t>
@@ -156,6 +159,9 @@
   <si>
     <t>圣击术</t>
   </si>
+  <si>
+    <t>治疗祈祷</t>
+  </si>
 </sst>
 </file>
 
@@ -164,8 +170,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -183,6 +189,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -192,37 +212,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,26 +287,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,29 +313,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,13 +347,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,7 +473,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,151 +497,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,17 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -576,15 +571,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -596,6 +582,26 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,10 +646,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,10 +658,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,121 +670,121 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,18 +1140,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="10" max="10" width="34.6666666666667" customWidth="1"/>
+    <col min="11" max="11" width="34.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1176,338 +1182,391 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>30000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>50</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>120</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>40000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>30</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="J3" t="s">
-        <v>12</v>
+      <c r="K3" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>30000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>80</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>60</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>10</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>10000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>50</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>20000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>20</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>80</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>60000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>60</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>666</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
         <v>20000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>20</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>10</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>18</v>
+      <c r="K8" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>35000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>20</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>30</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>20000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>30</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>10</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10" t="s">
-        <v>22</v>
+      <c r="K10" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
         <v>20000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>30</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
       <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>15</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
       <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>24</v>
+      <c r="K11" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>20000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>30</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>26</v>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>20000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>30</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>15</v>
       </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9084"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="技能配置表" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,16 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">1 对自身使用
+          <t>1 对自身或友方使用使用
 2 对敌人单体使用
 3 对敌方群体使用
 4 对友方使用
 5 召唤兽技能，对敌方使用
-</t>
+6 只能对自身使用</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>id</t>
   </si>
@@ -91,7 +91,10 @@
     </r>
   </si>
   <si>
-    <t>伤害</t>
+    <t>伤害量</t>
+  </si>
+  <si>
+    <t>治疗量</t>
   </si>
   <si>
     <t>等级</t>
@@ -161,6 +164,9 @@
   </si>
   <si>
     <t>治疗祈祷</t>
+  </si>
+  <si>
+    <t>迅速恢复生命值</t>
   </si>
 </sst>
 </file>
@@ -168,9 +174,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -190,14 +196,82 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,21 +286,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,84 +319,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,25 +353,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,151 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,21 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,17 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,6 +591,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -615,11 +615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -646,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,133 +664,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1140,18 +1146,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="11" max="11" width="34.6666666666667" customWidth="1"/>
+    <col min="12" max="12" width="34.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1185,13 +1191,16 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -1209,18 +1218,21 @@
         <v>120</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1238,21 +1250,24 @@
         <v>10</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
-        <v>13</v>
+      <c r="L3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1270,18 +1285,21 @@
         <v>60</v>
       </c>
       <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1299,18 +1317,21 @@
         <v>50</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -1328,18 +1349,21 @@
         <v>80</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1357,18 +1381,21 @@
         <v>666</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>10</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -1385,22 +1412,22 @@
       <c r="G8">
         <v>20</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>10</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1</v>
       </c>
-      <c r="K8" t="s">
-        <v>19</v>
+      <c r="L8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -1418,21 +1445,24 @@
         <v>30</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>10</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="K9" t="s">
-        <v>21</v>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1449,22 +1479,22 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>10</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3</v>
       </c>
-      <c r="K10" t="s">
-        <v>23</v>
+      <c r="L10" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -1482,27 +1512,30 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>15</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>16</v>
       </c>
-      <c r="K11" t="s">
-        <v>25</v>
+      <c r="L11" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1517,21 +1550,24 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>50</v>
+      </c>
+      <c r="I12">
         <v>10</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="K12" t="s">
-        <v>27</v>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1549,24 +1585,48 @@
         <v>20</v>
       </c>
       <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>15</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>4</v>
+      </c>
+      <c r="E14">
+        <v>40000</v>
+      </c>
+      <c r="F14">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -32,7 +32,8 @@
 3 对敌方群体使用
 4 对友方使用
 5 召唤兽技能，对敌方使用
-6 只能对自身使用</t>
+6 只能对自身使用
+7 对敌方高威胁值的技能</t>
         </r>
       </text>
     </comment>
@@ -174,9 +175,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -202,8 +203,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,9 +288,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,44 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,45 +320,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,97 +354,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,36 +510,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -492,42 +529,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,6 +545,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,50 +579,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,6 +607,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -652,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,130 +668,130 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1149,7 +1150,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1203,7 +1204,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1235,7 +1236,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0</v>

--- a/gameserver/src/main/resources/gameData/skill.xlsx
+++ b/gameserver/src/main/resources/gameData/skill.xlsx
@@ -175,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -197,7 +197,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,10 +256,49 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,59 +311,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,38 +326,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -354,187 +354,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,20 +550,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,6 +583,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,45 +645,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,145 +653,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,7 +1150,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1274,7 +1274,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>3000</v>
       </c>
       <c r="E4">
         <v>30000</v>
@@ -1402,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="E8">
         <v>20000</v>
@@ -1501,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E11">
         <v>20000</v>
@@ -1539,7 +1539,7 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E12">
         <v>20000</v>
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>4000</v>
       </c>
       <c r="E14">
         <v>40000</v>
